--- a/parameter_description.xlsx
+++ b/parameter_description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyja\source\repos\DR_Spring_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyja\source\repos\Proximal_cryo-ET_supplementary\Proximal_cryo-ET_supplementary\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>Argument</t>
   </si>
@@ -287,9 +287,6 @@
     <t>True if the computation is done by tiles</t>
   </si>
   <si>
-    <t>Number of tiles in which the computation is divided. Must be a divisior of projection image height.</t>
-  </si>
-  <si>
     <t>TV operator parameter. Increase slightly if overregularization ocurrs.</t>
   </si>
   <si>
@@ -300,15 +297,29 @@
   </si>
   <si>
     <t>To skip some of the pixels in the search region during NLM. 3 provides almost the same result as no skip, but much faster.</t>
+  </si>
+  <si>
+    <t>The syntax is 'CUDA_PROXIMAL_SART.exe param1 value1 param2 value2...'</t>
+  </si>
+  <si>
+    <t>Number of tiles in which the computation is divided. Must be a divisior of projection image height. Use to adjust to available GPU memory.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -335,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -348,6 +359,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,23 +644,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="151.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="151.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -686,7 +700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -706,7 +720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -746,7 +760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -786,7 +800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -802,7 +816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,7 +832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -833,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -854,7 +868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -874,7 +888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -891,10 +905,10 @@
         <v>0.01</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,7 +928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -934,7 +948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -951,10 +965,10 @@
         <v>450</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -972,7 +986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -987,10 +1001,10 @@
         <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1008,7 +1022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1048,7 +1062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1121,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1140,7 +1154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1156,7 +1170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1204,7 +1218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -1236,7 +1250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1281,7 +1295,21 @@
         <v>70</v>
       </c>
     </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>